--- a/Facebook_Test-case.xlsx
+++ b/Facebook_Test-case.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\partho\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,9 +81,6 @@
     <t>Login</t>
   </si>
   <si>
-    <t>Partho</t>
-  </si>
-  <si>
     <t>Test Lead/Peers</t>
   </si>
   <si>
@@ -217,6 +209,9 @@
   </si>
   <si>
     <t>No Comments</t>
+  </si>
+  <si>
+    <t>Safar Khan Shuvo</t>
   </si>
 </sst>
 </file>
@@ -569,7 +564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -580,27 +575,27 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -608,7 +603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -616,39 +611,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44734</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>44735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -662,13 +657,13 @@
         <v>17</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>9</v>
@@ -694,178 +689,178 @@
     </row>
     <row r="9" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="N9" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>44734</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="H11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="M11" s="7">
         <v>44735</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="89.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="M12" s="6">
         <v>44735</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
